--- a/appium_test/date/ControlLibrary.xlsx
+++ b/appium_test/date/ControlLibrary.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="70">
   <si>
     <t>Name</t>
   </si>
@@ -34,6 +34,42 @@
   </si>
   <si>
     <t>登陆页面，登陆按钮</t>
+  </si>
+  <si>
+    <t>code_1</t>
+  </si>
+  <si>
+    <t>//android.view.ViewGroup/android.widget.EditText[1]</t>
+  </si>
+  <si>
+    <t>验证码输入页面，输入框1</t>
+  </si>
+  <si>
+    <t>code_2</t>
+  </si>
+  <si>
+    <t>//android.view.ViewGroup/android.widget.EditText[2]</t>
+  </si>
+  <si>
+    <t>验证码输入页面，输入框2</t>
+  </si>
+  <si>
+    <t>code_3</t>
+  </si>
+  <si>
+    <t>//android.view.ViewGroup/android.widget.EditText[3]</t>
+  </si>
+  <si>
+    <t>验证码输入页面，输入框3</t>
+  </si>
+  <si>
+    <t>code_4</t>
+  </si>
+  <si>
+    <t>//android.view.ViewGroup/android.widget.EditText[4]</t>
+  </si>
+  <si>
+    <t>验证码输入页面，输入框4</t>
   </si>
   <si>
     <t>signin_activity</t>
@@ -211,6 +247,94 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -219,53 +343,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,15 +367,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,61 +385,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,13 +412,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,163 +586,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,30 +615,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -621,8 +633,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -634,15 +664,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,16 +682,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -679,133 +715,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1212,7 +1248,6 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
@@ -1226,15 +1261,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="30.625" style="4" customWidth="1"/>
     <col min="2" max="2" width="61.75" style="2" customWidth="1"/>
@@ -1262,6 +1297,50 @@
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1289,197 +1368,197 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="3" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/appium_test/date/ControlLibrary.xlsx
+++ b/appium_test/date/ControlLibrary.xlsx
@@ -30,7 +30,7 @@
     <t>login</t>
   </si>
   <si>
-    <t>//android.view.ViewGroup/android.view.ViewGroup[4]</t>
+    <t>//android.view.ViewGroup/android.view.ViewGroup[4]/android.widget.TextView[1]</t>
   </si>
   <si>
     <t>登陆页面，登陆按钮</t>
@@ -233,10 +233,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -248,58 +248,92 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,6 +347,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -321,6 +363,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -328,64 +384,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -406,37 +406,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,139 +526,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,6 +597,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -611,6 +650,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,67 +692,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -703,10 +703,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -715,133 +715,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1266,7 +1266,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
@@ -1288,11 +1288,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" ht="27" spans="1:3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="5" t="s">

--- a/appium_test/date/ControlLibrary.xlsx
+++ b/appium_test/date/ControlLibrary.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="73">
   <si>
     <t>Name</t>
   </si>
@@ -70,6 +70,15 @@
   </si>
   <si>
     <t>验证码输入页面，输入框4</t>
+  </si>
+  <si>
+    <t>find_password</t>
+  </si>
+  <si>
+    <t>//android.view.ViewGroup/android.view.ViewGroup[3]/android.view.ViewGroup[1]</t>
+  </si>
+  <si>
+    <t>登陆页面-找回密码弹窗，找回密码按钮</t>
   </si>
   <si>
     <t>signin_activity</t>
@@ -233,10 +242,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -249,6 +258,113 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,113 +393,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -406,6 +415,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -436,126 +589,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -563,30 +596,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,26 +609,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,6 +635,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -674,17 +683,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -703,145 +712,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1261,15 +1270,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="30.625" style="4" customWidth="1"/>
     <col min="2" max="2" width="61.75" style="2" customWidth="1"/>
@@ -1341,6 +1350,17 @@
       </c>
       <c r="C6" s="5" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="7" ht="27" spans="1:3">
+      <c r="A7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1368,197 +1388,197 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
